--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Crlf1</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.218359</v>
+        <v>0.3711636666666667</v>
       </c>
       <c r="H2">
-        <v>0.6550769999999999</v>
+        <v>1.113491</v>
       </c>
       <c r="I2">
-        <v>0.01966557738178061</v>
+        <v>0.0322568113697387</v>
       </c>
       <c r="J2">
-        <v>0.01966557738178061</v>
+        <v>0.03225681136973869</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.666771333333333</v>
+        <v>0.03844333333333334</v>
       </c>
       <c r="N2">
-        <v>17.000314</v>
+        <v>0.11533</v>
       </c>
       <c r="O2">
-        <v>0.9648745059153377</v>
+        <v>0.006478890266597937</v>
       </c>
       <c r="P2">
-        <v>0.9648745059153376</v>
+        <v>0.006478890266597936</v>
       </c>
       <c r="Q2">
-        <v>1.237390521575333</v>
+        <v>0.01426876855888889</v>
       </c>
       <c r="R2">
-        <v>11.136514694178</v>
+        <v>0.12841891703</v>
       </c>
       <c r="S2">
-        <v>0.01897481425978541</v>
+        <v>0.0002089883412148857</v>
       </c>
       <c r="T2">
-        <v>0.01897481425978541</v>
+        <v>0.0002089883412148857</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.218359</v>
+        <v>0.3711636666666667</v>
       </c>
       <c r="H3">
-        <v>0.6550769999999999</v>
+        <v>1.113491</v>
       </c>
       <c r="I3">
-        <v>0.01966557738178061</v>
+        <v>0.0322568113697387</v>
       </c>
       <c r="J3">
-        <v>0.01966557738178061</v>
+        <v>0.03225681136973869</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,60 +617,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2062943333333333</v>
+        <v>5.666771333333333</v>
       </c>
       <c r="N3">
-        <v>0.618883</v>
+        <v>17.000314</v>
       </c>
       <c r="O3">
-        <v>0.03512549408466232</v>
+        <v>0.95502617622222</v>
       </c>
       <c r="P3">
-        <v>0.03512549408466231</v>
+        <v>0.9550261762222199</v>
       </c>
       <c r="Q3">
-        <v>0.04504622433233332</v>
+        <v>2.103299626241555</v>
       </c>
       <c r="R3">
-        <v>0.4054160189909999</v>
+        <v>18.929696636174</v>
       </c>
       <c r="S3">
-        <v>0.000690763121995204</v>
+        <v>0.03080609921956298</v>
       </c>
       <c r="T3">
-        <v>0.0006907631219952039</v>
+        <v>0.03080609921956297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>6.123096</v>
+        <v>0.3711636666666667</v>
       </c>
       <c r="H4">
-        <v>18.369288</v>
+        <v>1.113491</v>
       </c>
       <c r="I4">
-        <v>0.5514506761986974</v>
+        <v>0.0322568113697387</v>
       </c>
       <c r="J4">
-        <v>0.5514506761986975</v>
+        <v>0.03225681136973869</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.666771333333333</v>
+        <v>0.2284146666666667</v>
       </c>
       <c r="N4">
-        <v>17.000314</v>
+        <v>0.685244</v>
       </c>
       <c r="O4">
-        <v>0.9648745059153377</v>
+        <v>0.03849493351118214</v>
       </c>
       <c r="P4">
-        <v>0.9648745059153376</v>
+        <v>0.03849493351118213</v>
       </c>
       <c r="Q4">
-        <v>34.698184884048</v>
+        <v>0.08477922520044444</v>
       </c>
       <c r="R4">
-        <v>312.283663956432</v>
+        <v>0.763013026804</v>
       </c>
       <c r="S4">
-        <v>0.5320806987338971</v>
+        <v>0.001241723808960835</v>
       </c>
       <c r="T4">
-        <v>0.5320806987338971</v>
+        <v>0.001241723808960835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +729,51 @@
         <v>18.369288</v>
       </c>
       <c r="I5">
-        <v>0.5514506761986974</v>
+        <v>0.5321413985496108</v>
       </c>
       <c r="J5">
-        <v>0.5514506761986975</v>
+        <v>0.5321413985496107</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2062943333333333</v>
+        <v>0.03844333333333334</v>
       </c>
       <c r="N5">
-        <v>0.618883</v>
+        <v>0.11533</v>
       </c>
       <c r="O5">
-        <v>0.03512549408466232</v>
+        <v>0.006478890266597937</v>
       </c>
       <c r="P5">
-        <v>0.03512549408466231</v>
+        <v>0.006478890266597936</v>
       </c>
       <c r="Q5">
-        <v>1.263160007256</v>
+        <v>0.23539222056</v>
       </c>
       <c r="R5">
-        <v>11.368440065304</v>
+        <v>2.11852998504</v>
       </c>
       <c r="S5">
-        <v>0.01936997746480038</v>
+        <v>0.003447685727516887</v>
       </c>
       <c r="T5">
-        <v>0.01936997746480038</v>
+        <v>0.003447685727516886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.762160000000001</v>
+        <v>6.123096</v>
       </c>
       <c r="H6">
-        <v>14.28648</v>
+        <v>18.369288</v>
       </c>
       <c r="I6">
-        <v>0.4288837464195219</v>
+        <v>0.5321413985496108</v>
       </c>
       <c r="J6">
-        <v>0.4288837464195219</v>
+        <v>0.5321413985496107</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,33 +809,33 @@
         <v>17.000314</v>
       </c>
       <c r="O6">
-        <v>0.9648745059153377</v>
+        <v>0.95502617622222</v>
       </c>
       <c r="P6">
-        <v>0.9648745059153376</v>
+        <v>0.9550261762222199</v>
       </c>
       <c r="Q6">
-        <v>26.98607177274667</v>
+        <v>34.698184884048</v>
       </c>
       <c r="R6">
-        <v>242.87464595472</v>
+        <v>312.283663956432</v>
       </c>
       <c r="S6">
-        <v>0.4138189929216552</v>
+        <v>0.5082089650663792</v>
       </c>
       <c r="T6">
-        <v>0.4138189929216552</v>
+        <v>0.508208965066379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -844,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.762160000000001</v>
+        <v>6.123096</v>
       </c>
       <c r="H7">
-        <v>14.28648</v>
+        <v>18.369288</v>
       </c>
       <c r="I7">
-        <v>0.4288837464195219</v>
+        <v>0.5321413985496108</v>
       </c>
       <c r="J7">
-        <v>0.4288837464195219</v>
+        <v>0.5321413985496107</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2062943333333333</v>
+        <v>0.2284146666666667</v>
       </c>
       <c r="N7">
-        <v>0.618883</v>
+        <v>0.685244</v>
       </c>
       <c r="O7">
-        <v>0.03512549408466232</v>
+        <v>0.03849493351118214</v>
       </c>
       <c r="P7">
-        <v>0.03512549408466231</v>
+        <v>0.03849493351118213</v>
       </c>
       <c r="Q7">
-        <v>0.9824066224266668</v>
+        <v>1.398604931808</v>
       </c>
       <c r="R7">
-        <v>8.84165960184</v>
+        <v>12.587444386272</v>
       </c>
       <c r="S7">
-        <v>0.01506475349786673</v>
+        <v>0.02048474775571475</v>
       </c>
       <c r="T7">
-        <v>0.01506475349786673</v>
+        <v>0.02048474775571474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.943314666666667</v>
+      </c>
+      <c r="H8">
+        <v>14.829944</v>
+      </c>
+      <c r="I8">
+        <v>0.4296098542617661</v>
+      </c>
+      <c r="J8">
+        <v>0.4296098542617661</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03844333333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.11533</v>
+      </c>
+      <c r="O8">
+        <v>0.006478890266597937</v>
+      </c>
+      <c r="P8">
+        <v>0.006478890266597936</v>
+      </c>
+      <c r="Q8">
+        <v>0.1900374935022222</v>
+      </c>
+      <c r="R8">
+        <v>1.71033744152</v>
+      </c>
+      <c r="S8">
+        <v>0.002783395103211115</v>
+      </c>
+      <c r="T8">
+        <v>0.002783395103211114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.943314666666667</v>
+      </c>
+      <c r="H9">
+        <v>14.829944</v>
+      </c>
+      <c r="I9">
+        <v>0.4296098542617661</v>
+      </c>
+      <c r="J9">
+        <v>0.4296098542617661</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.666771333333333</v>
+      </c>
+      <c r="N9">
+        <v>17.000314</v>
+      </c>
+      <c r="O9">
+        <v>0.95502617622222</v>
+      </c>
+      <c r="P9">
+        <v>0.9550261762222199</v>
+      </c>
+      <c r="Q9">
+        <v>28.01263384471289</v>
+      </c>
+      <c r="R9">
+        <v>252.113704602416</v>
+      </c>
+      <c r="S9">
+        <v>0.4102886563829997</v>
+      </c>
+      <c r="T9">
+        <v>0.4102886563829996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.943314666666667</v>
+      </c>
+      <c r="H10">
+        <v>14.829944</v>
+      </c>
+      <c r="I10">
+        <v>0.4296098542617661</v>
+      </c>
+      <c r="J10">
+        <v>0.4296098542617661</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2284146666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.685244</v>
+      </c>
+      <c r="O10">
+        <v>0.03849493351118214</v>
+      </c>
+      <c r="P10">
+        <v>0.03849493351118213</v>
+      </c>
+      <c r="Q10">
+        <v>1.129125571815111</v>
+      </c>
+      <c r="R10">
+        <v>10.162130146336</v>
+      </c>
+      <c r="S10">
+        <v>0.01653780277555534</v>
+      </c>
+      <c r="T10">
+        <v>0.01653780277555533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06894633333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.206839</v>
+      </c>
+      <c r="I11">
+        <v>0.005991935818884376</v>
+      </c>
+      <c r="J11">
+        <v>0.005991935818884375</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.03844333333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.11533</v>
+      </c>
+      <c r="O11">
+        <v>0.006478890266597937</v>
+      </c>
+      <c r="P11">
+        <v>0.006478890266597936</v>
+      </c>
+      <c r="Q11">
+        <v>0.002650526874444445</v>
+      </c>
+      <c r="R11">
+        <v>0.02385474187</v>
+      </c>
+      <c r="S11">
+        <v>3.882109465504952E-05</v>
+      </c>
+      <c r="T11">
+        <v>3.88210946550495E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06894633333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.206839</v>
+      </c>
+      <c r="I12">
+        <v>0.005991935818884376</v>
+      </c>
+      <c r="J12">
+        <v>0.005991935818884375</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.666771333333333</v>
+      </c>
+      <c r="N12">
+        <v>17.000314</v>
+      </c>
+      <c r="O12">
+        <v>0.95502617622222</v>
+      </c>
+      <c r="P12">
+        <v>0.9550261762222199</v>
+      </c>
+      <c r="Q12">
+        <v>0.3907031052717778</v>
+      </c>
+      <c r="R12">
+        <v>3.516327947446</v>
+      </c>
+      <c r="S12">
+        <v>0.005722455553278103</v>
+      </c>
+      <c r="T12">
+        <v>0.0057224555532781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06894633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.206839</v>
+      </c>
+      <c r="I13">
+        <v>0.005991935818884376</v>
+      </c>
+      <c r="J13">
+        <v>0.005991935818884375</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2284146666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.685244</v>
+      </c>
+      <c r="O13">
+        <v>0.03849493351118214</v>
+      </c>
+      <c r="P13">
+        <v>0.03849493351118213</v>
+      </c>
+      <c r="Q13">
+        <v>0.01574835374622222</v>
+      </c>
+      <c r="R13">
+        <v>0.141735183716</v>
+      </c>
+      <c r="S13">
+        <v>0.0002306591709512248</v>
+      </c>
+      <c r="T13">
+        <v>0.0002306591709512247</v>
       </c>
     </row>
   </sheetData>
